--- a/biology/Botanique/Sac_pollinique/Sac_pollinique.xlsx
+++ b/biology/Botanique/Sac_pollinique/Sac_pollinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sac pollinique est un microsporange qui, chez les végétaux spermatophytes, renferme les grains de pollen.
-Chez les gymnospermes, les cônes mâles sont constitués d'écailles staminées fertiles qui portent sur leur face inférieure des sacs polliniques remplis de pollens et sont, de ce fait, appelée microsporophylles[1].
-Chez les angiospermes, les sacs polliniques ou sporogènes sont quatre massifs de cellules fertiles qui apparaissent au cours du développement de l'anthère. Chacun de ces massifs renferme un massif central d'archéspores fertiles (cellules mères du sac embryonnaire), entouré d'une assise nourricière, le tapis[2].
+Chez les gymnospermes, les cônes mâles sont constitués d'écailles staminées fertiles qui portent sur leur face inférieure des sacs polliniques remplis de pollens et sont, de ce fait, appelée microsporophylles.
+Chez les angiospermes, les sacs polliniques ou sporogènes sont quatre massifs de cellules fertiles qui apparaissent au cours du développement de l'anthère. Chacun de ces massifs renferme un massif central d'archéspores fertiles (cellules mères du sac embryonnaire), entouré d'une assise nourricière, le tapis.
 </t>
         </is>
       </c>
